--- a/Project-KTXForecasting/Result/Forecasting_1DLag12_전라선.xlsx
+++ b/Project-KTXForecasting/Result/Forecasting_1DLag12_전라선.xlsx
@@ -528,25 +528,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>62266026909.58398</v>
+        <v>62792238664.84863</v>
       </c>
       <c r="C4">
-        <v>249531.6150502457</v>
+        <v>250583.7956948706</v>
       </c>
       <c r="D4">
-        <v>0.0324860311400191</v>
+        <v>0.03274233790424878</v>
       </c>
       <c r="E4">
-        <v>119340.2708333333</v>
+        <v>120978.2760416667</v>
       </c>
       <c r="F4">
-        <v>0.1106697328425698</v>
+        <v>0.1126209411669508</v>
       </c>
       <c r="G4">
-        <v>57172.53125</v>
+        <v>59729.09375</v>
       </c>
       <c r="H4">
-        <v>0.07534541313533706</v>
+        <v>0.07886208156230952</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -802,7 +802,7 @@
         <v>717939.5</v>
       </c>
       <c r="F2">
-        <v>728009</v>
+        <v>725127.0625</v>
       </c>
       <c r="G2">
         <v>665994.8125</v>
@@ -843,7 +843,7 @@
         <v>737984.625</v>
       </c>
       <c r="F3">
-        <v>705886.1875</v>
+        <v>702376.6875</v>
       </c>
       <c r="G3">
         <v>678537.75</v>
@@ -884,7 +884,7 @@
         <v>714080.375</v>
       </c>
       <c r="F4">
-        <v>700430.9375</v>
+        <v>697507.125</v>
       </c>
       <c r="G4">
         <v>687907.625</v>
@@ -925,7 +925,7 @@
         <v>720170.75</v>
       </c>
       <c r="F5">
-        <v>734155.6875</v>
+        <v>729878.75</v>
       </c>
       <c r="G5">
         <v>666092.1875</v>
@@ -966,7 +966,7 @@
         <v>714426.8125</v>
       </c>
       <c r="F6">
-        <v>692311.9375</v>
+        <v>686908.5</v>
       </c>
       <c r="G6">
         <v>672109.9375</v>
@@ -1007,7 +1007,7 @@
         <v>721942.5625</v>
       </c>
       <c r="F7">
-        <v>656613.3125</v>
+        <v>652222.3125</v>
       </c>
       <c r="G7">
         <v>669086.5625</v>
@@ -1048,7 +1048,7 @@
         <v>760817.8125</v>
       </c>
       <c r="F8">
-        <v>670754.75</v>
+        <v>671510.75</v>
       </c>
       <c r="G8">
         <v>691075.625</v>
@@ -1089,7 +1089,7 @@
         <v>770357.0625</v>
       </c>
       <c r="F9">
-        <v>696475</v>
+        <v>696765.3125</v>
       </c>
       <c r="G9">
         <v>705587.625</v>
@@ -1130,7 +1130,7 @@
         <v>768675.75</v>
       </c>
       <c r="F10">
-        <v>721746.875</v>
+        <v>722220.4375</v>
       </c>
       <c r="G10">
         <v>694802.875</v>
@@ -1171,7 +1171,7 @@
         <v>766095</v>
       </c>
       <c r="F11">
-        <v>731401.375</v>
+        <v>730667.9375</v>
       </c>
       <c r="G11">
         <v>708382.125</v>
@@ -1212,7 +1212,7 @@
         <v>771294.875</v>
       </c>
       <c r="F12">
-        <v>744583.1875</v>
+        <v>742566.1875</v>
       </c>
       <c r="G12">
         <v>699626.9375</v>
@@ -1253,7 +1253,7 @@
         <v>796333.625</v>
       </c>
       <c r="F13">
-        <v>760296.875</v>
+        <v>756704.125</v>
       </c>
       <c r="G13">
         <v>618710.0625</v>
@@ -1294,7 +1294,7 @@
         <v>816603.6875</v>
       </c>
       <c r="F14">
-        <v>773485.3125</v>
+        <v>771339.6875</v>
       </c>
       <c r="G14">
         <v>443173.84375</v>
@@ -1335,7 +1335,7 @@
         <v>841476.3125</v>
       </c>
       <c r="F15">
-        <v>779848.5</v>
+        <v>774754.5625</v>
       </c>
       <c r="G15">
         <v>244785.59375</v>
@@ -1376,7 +1376,7 @@
         <v>844972.1875</v>
       </c>
       <c r="F16">
-        <v>809301.875</v>
+        <v>803131.6875</v>
       </c>
       <c r="G16">
         <v>324513.0625</v>
@@ -1417,7 +1417,7 @@
         <v>864543.5</v>
       </c>
       <c r="F17">
-        <v>834026.875</v>
+        <v>828397.8125</v>
       </c>
       <c r="G17">
         <v>467260.78125</v>
@@ -1458,7 +1458,7 @@
         <v>854875.1875</v>
       </c>
       <c r="F18">
-        <v>838928.875</v>
+        <v>832552.75</v>
       </c>
       <c r="G18">
         <v>493320.59375</v>
@@ -1499,7 +1499,7 @@
         <v>852564.0625</v>
       </c>
       <c r="F19">
-        <v>826859.125</v>
+        <v>827696.25</v>
       </c>
       <c r="G19">
         <v>501193.71875</v>
@@ -1540,7 +1540,7 @@
         <v>865379.625</v>
       </c>
       <c r="F20">
-        <v>799298.3125</v>
+        <v>798626.1875</v>
       </c>
       <c r="G20">
         <v>539318</v>
@@ -1581,7 +1581,7 @@
         <v>873475</v>
       </c>
       <c r="F21">
-        <v>779322.25</v>
+        <v>775755.9375</v>
       </c>
       <c r="G21">
         <v>426218.875</v>
@@ -1622,7 +1622,7 @@
         <v>901319.5</v>
       </c>
       <c r="F22">
-        <v>796334.375</v>
+        <v>800531.6875</v>
       </c>
       <c r="G22">
         <v>446589.84375</v>
@@ -1663,7 +1663,7 @@
         <v>903129.3125</v>
       </c>
       <c r="F23">
-        <v>857089.125</v>
+        <v>856964.75</v>
       </c>
       <c r="G23">
         <v>549427.125</v>
@@ -1704,7 +1704,7 @@
         <v>932767.75</v>
       </c>
       <c r="F24">
-        <v>877969.8125</v>
+        <v>878831.0625</v>
       </c>
       <c r="G24">
         <v>458880.53125</v>
@@ -1745,7 +1745,7 @@
         <v>936219.6875</v>
       </c>
       <c r="F25">
-        <v>879317.1875</v>
+        <v>880156.9375</v>
       </c>
       <c r="G25">
         <v>490912.96875</v>
@@ -1786,7 +1786,7 @@
         <v>945596.1875</v>
       </c>
       <c r="F26">
-        <v>890424.0625</v>
+        <v>892821.9375</v>
       </c>
       <c r="G26">
         <v>495631.03125</v>
@@ -1827,7 +1827,7 @@
         <v>970026.5625</v>
       </c>
       <c r="F27">
-        <v>886081.6875</v>
+        <v>886750.75</v>
       </c>
       <c r="G27">
         <v>484997.5625</v>
@@ -1868,7 +1868,7 @@
         <v>956736.125</v>
       </c>
       <c r="F28">
-        <v>885272.125</v>
+        <v>884933.75</v>
       </c>
       <c r="G28">
         <v>453387.6875</v>
@@ -1909,7 +1909,7 @@
         <v>977081.625</v>
       </c>
       <c r="F29">
-        <v>899606.0625</v>
+        <v>897758.625</v>
       </c>
       <c r="G29">
         <v>443331.875</v>
@@ -1950,7 +1950,7 @@
         <v>969903.1875</v>
       </c>
       <c r="F30">
-        <v>894066.125</v>
+        <v>895210.5</v>
       </c>
       <c r="G30">
         <v>537957.3125</v>
@@ -1991,7 +1991,7 @@
         <v>985819.625</v>
       </c>
       <c r="F31">
-        <v>904291.6875</v>
+        <v>906010.5</v>
       </c>
       <c r="G31">
         <v>512110.03125</v>
@@ -2032,7 +2032,7 @@
         <v>1000836.875</v>
       </c>
       <c r="F32">
-        <v>892451.75</v>
+        <v>891910.0625</v>
       </c>
       <c r="G32">
         <v>634196.25</v>
@@ -2073,7 +2073,7 @@
         <v>996412</v>
       </c>
       <c r="F33">
-        <v>880858.1875</v>
+        <v>880762.1875</v>
       </c>
       <c r="G33">
         <v>634661.375</v>
@@ -2114,7 +2114,7 @@
         <v>1017692.1875</v>
       </c>
       <c r="F34">
-        <v>882584.4375</v>
+        <v>881146.8125</v>
       </c>
       <c r="G34">
         <v>627664.75</v>
@@ -2257,25 +2257,25 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>13419082051.91935</v>
+        <v>13079606699.62964</v>
       </c>
       <c r="C5">
-        <v>115840.7616166233</v>
+        <v>114366.1081773339</v>
       </c>
       <c r="D5">
-        <v>0.03400643693983414</v>
+        <v>0.03355066451167474</v>
       </c>
       <c r="E5">
-        <v>67582.76822916667</v>
+        <v>67054.9296875</v>
       </c>
       <c r="F5">
-        <v>0.1329810273113793</v>
+        <v>0.132215574102218</v>
       </c>
       <c r="G5">
-        <v>38083.21875</v>
+        <v>33348.484375</v>
       </c>
       <c r="H5">
-        <v>0.09881004514939276</v>
+        <v>0.08685138013957519</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2508,7 +2508,7 @@
         <v>394182.8125</v>
       </c>
       <c r="G2">
-        <v>361770.78125</v>
+        <v>370076.3125</v>
       </c>
       <c r="H2">
         <v>366523.59375</v>
@@ -2549,7 +2549,7 @@
         <v>399103.59375</v>
       </c>
       <c r="G3">
-        <v>339419.1875</v>
+        <v>345913.8125</v>
       </c>
       <c r="H3">
         <v>340515.71875</v>
@@ -2590,7 +2590,7 @@
         <v>392833.1875</v>
       </c>
       <c r="G4">
-        <v>371854.40625</v>
+        <v>376770.59375</v>
       </c>
       <c r="H4">
         <v>330139.1875</v>
@@ -2631,7 +2631,7 @@
         <v>348250.28125</v>
       </c>
       <c r="G5">
-        <v>325781.78125</v>
+        <v>342209.15625</v>
       </c>
       <c r="H5">
         <v>348141.65625</v>
@@ -2672,7 +2672,7 @@
         <v>351408.03125</v>
       </c>
       <c r="G6">
-        <v>305439.03125</v>
+        <v>309096.21875</v>
       </c>
       <c r="H6">
         <v>358503.3125</v>
@@ -2713,7 +2713,7 @@
         <v>416349.8125</v>
       </c>
       <c r="G7">
-        <v>343974.9375</v>
+        <v>335254.5</v>
       </c>
       <c r="H7">
         <v>365514.8125</v>
@@ -2754,7 +2754,7 @@
         <v>369034.71875</v>
       </c>
       <c r="G8">
-        <v>364325.53125</v>
+        <v>356074.78125</v>
       </c>
       <c r="H8">
         <v>362406.875</v>
@@ -2795,7 +2795,7 @@
         <v>382685</v>
       </c>
       <c r="G9">
-        <v>370384.71875</v>
+        <v>365731.71875</v>
       </c>
       <c r="H9">
         <v>333001.875</v>
@@ -2836,7 +2836,7 @@
         <v>402737.28125</v>
       </c>
       <c r="G10">
-        <v>374339.15625</v>
+        <v>374304.3125</v>
       </c>
       <c r="H10">
         <v>321870.25</v>
@@ -2877,7 +2877,7 @@
         <v>357728.03125</v>
       </c>
       <c r="G11">
-        <v>358512.625</v>
+        <v>367735.6875</v>
       </c>
       <c r="H11">
         <v>324327.59375</v>
@@ -2918,7 +2918,7 @@
         <v>325700.1875</v>
       </c>
       <c r="G12">
-        <v>355892.46875</v>
+        <v>355614.125</v>
       </c>
       <c r="H12">
         <v>333971.46875</v>
@@ -2959,7 +2959,7 @@
         <v>185960.671875</v>
       </c>
       <c r="G13">
-        <v>397423.21875</v>
+        <v>404949.1875</v>
       </c>
       <c r="H13">
         <v>346740.78125</v>
@@ -3000,7 +3000,7 @@
         <v>160729.71875</v>
       </c>
       <c r="G14">
-        <v>387466.09375</v>
+        <v>396653.71875</v>
       </c>
       <c r="H14">
         <v>355309.21875</v>
@@ -3041,7 +3041,7 @@
         <v>282503.75</v>
       </c>
       <c r="G15">
-        <v>410905.15625</v>
+        <v>409929.8125</v>
       </c>
       <c r="H15">
         <v>333911.65625</v>
@@ -3082,7 +3082,7 @@
         <v>300393.15625</v>
       </c>
       <c r="G16">
-        <v>427831.9375</v>
+        <v>434930.03125</v>
       </c>
       <c r="H16">
         <v>194124.15625</v>
@@ -3123,7 +3123,7 @@
         <v>181727.25</v>
       </c>
       <c r="G17">
-        <v>403513.25</v>
+        <v>408684.21875</v>
       </c>
       <c r="H17">
         <v>154006.625</v>
@@ -3164,7 +3164,7 @@
         <v>68533.234375</v>
       </c>
       <c r="G18">
-        <v>400553.40625</v>
+        <v>401529.59375</v>
       </c>
       <c r="H18">
         <v>169957.375</v>
@@ -3205,7 +3205,7 @@
         <v>18251.875</v>
       </c>
       <c r="G19">
-        <v>406689.71875</v>
+        <v>409728.28125</v>
       </c>
       <c r="H19">
         <v>190401.375</v>
@@ -3246,7 +3246,7 @@
         <v>2908.734375</v>
       </c>
       <c r="G20">
-        <v>407360.4375</v>
+        <v>407172.15625</v>
       </c>
       <c r="H20">
         <v>254205.234375</v>
@@ -3287,7 +3287,7 @@
         <v>80369.1875</v>
       </c>
       <c r="G21">
-        <v>414396.125</v>
+        <v>405755.875</v>
       </c>
       <c r="H21">
         <v>263028.6875</v>
@@ -3328,7 +3328,7 @@
         <v>59541.546875</v>
       </c>
       <c r="G22">
-        <v>465244.625</v>
+        <v>460418.6875</v>
       </c>
       <c r="H22">
         <v>186831.171875</v>
@@ -3369,7 +3369,7 @@
         <v>62661.0625</v>
       </c>
       <c r="G23">
-        <v>444412.375</v>
+        <v>458761.875</v>
       </c>
       <c r="H23">
         <v>190058.25</v>
@@ -3410,7 +3410,7 @@
         <v>105829.8359375</v>
       </c>
       <c r="G24">
-        <v>451097.625</v>
+        <v>453217.6875</v>
       </c>
       <c r="H24">
         <v>218435.515625</v>
@@ -3451,7 +3451,7 @@
         <v>112631.203125</v>
       </c>
       <c r="G25">
-        <v>468932.5</v>
+        <v>479848.28125</v>
       </c>
       <c r="H25">
         <v>181439.859375</v>
@@ -3492,7 +3492,7 @@
         <v>176934.59375</v>
       </c>
       <c r="G26">
-        <v>438283.1875</v>
+        <v>449119.625</v>
       </c>
       <c r="H26">
         <v>206502.515625</v>
@@ -3533,7 +3533,7 @@
         <v>225648.953125</v>
       </c>
       <c r="G27">
-        <v>473613.03125</v>
+        <v>476969.53125</v>
       </c>
       <c r="H27">
         <v>139114.796875</v>
@@ -3574,7 +3574,7 @@
         <v>134123.0625</v>
       </c>
       <c r="G28">
-        <v>459032.875</v>
+        <v>483766</v>
       </c>
       <c r="H28">
         <v>172460.15625</v>
@@ -3615,7 +3615,7 @@
         <v>91945.21875</v>
       </c>
       <c r="G29">
-        <v>452468.90625</v>
+        <v>464355.625</v>
       </c>
       <c r="H29">
         <v>185789.765625</v>
@@ -3656,7 +3656,7 @@
         <v>145131.1875</v>
       </c>
       <c r="G30">
-        <v>452065.21875</v>
+        <v>466121.625</v>
       </c>
       <c r="H30">
         <v>243646.59375</v>
@@ -3697,7 +3697,7 @@
         <v>169527.34375</v>
       </c>
       <c r="G31">
-        <v>444503.96875</v>
+        <v>451494.125</v>
       </c>
       <c r="H31">
         <v>319265.9375</v>
@@ -3738,7 +3738,7 @@
         <v>185277.1875</v>
       </c>
       <c r="G32">
-        <v>448592.5</v>
+        <v>457539.1875</v>
       </c>
       <c r="H32">
         <v>318446.3125</v>
@@ -3779,7 +3779,7 @@
         <v>294605.0625</v>
       </c>
       <c r="G33">
-        <v>447604.40625</v>
+        <v>450711.0625</v>
       </c>
       <c r="H33">
         <v>293389.34375</v>
@@ -3820,7 +3820,7 @@
         <v>247235.28125</v>
       </c>
       <c r="G34">
-        <v>445454.6875</v>
+        <v>455612.625</v>
       </c>
       <c r="H34">
         <v>254062.484375</v>
@@ -3957,54 +3957,54 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>22220204908.30379</v>
+        <v>22119408022.71419</v>
       </c>
       <c r="C5">
-        <v>149064.4320698395</v>
+        <v>148725.9493925461</v>
       </c>
       <c r="D5">
-        <v>0.05377696335551773</v>
+        <v>0.04321635591357958</v>
       </c>
       <c r="E5">
-        <v>80176.0078125</v>
+        <v>74505.59375</v>
       </c>
       <c r="F5">
-        <v>0.1621193037124823</v>
+        <v>0.1417166466704925</v>
       </c>
       <c r="G5">
-        <v>35068.46875</v>
+        <v>41726.625</v>
       </c>
       <c r="H5">
-        <v>0.08699436205192218</v>
+        <v>0.1046873046894528</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>22345376079.04753</v>
+        <v>22220204908.30379</v>
       </c>
       <c r="C6">
-        <v>149483.6983722557</v>
+        <v>149064.4320698395</v>
       </c>
       <c r="D6">
-        <v>0.04417648225659848</v>
+        <v>0.05377696335551773</v>
       </c>
       <c r="E6">
-        <v>76239.03645833333</v>
+        <v>80176.0078125</v>
       </c>
       <c r="F6">
-        <v>0.1462050771830288</v>
+        <v>0.1621193037124823</v>
       </c>
       <c r="G6">
-        <v>42543.3125</v>
+        <v>35068.46875</v>
       </c>
       <c r="H6">
-        <v>0.1087818313671859</v>
+        <v>0.08699436205192218</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4170,10 +4170,10 @@
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>12</v>
@@ -4211,10 +4211,10 @@
         <v>352245.6875</v>
       </c>
       <c r="G2">
+        <v>328343.96875</v>
+      </c>
+      <c r="H2">
         <v>328412.03125</v>
-      </c>
-      <c r="H2">
-        <v>329161.4375</v>
       </c>
       <c r="I2">
         <v>391271.53125</v>
@@ -4252,10 +4252,10 @@
         <v>358534.46875</v>
       </c>
       <c r="G3">
+        <v>332143.03125</v>
+      </c>
+      <c r="H3">
         <v>347098</v>
-      </c>
-      <c r="H3">
-        <v>330966.25</v>
       </c>
       <c r="I3">
         <v>398502.96875</v>
@@ -4293,10 +4293,10 @@
         <v>356980.65625</v>
       </c>
       <c r="G4">
+        <v>339271.1875</v>
+      </c>
+      <c r="H4">
         <v>349213.90625</v>
-      </c>
-      <c r="H4">
-        <v>336643.4375</v>
       </c>
       <c r="I4">
         <v>344780.375</v>
@@ -4334,10 +4334,10 @@
         <v>347231.96875</v>
       </c>
       <c r="G5">
+        <v>338516.03125</v>
+      </c>
+      <c r="H5">
         <v>351748.96875</v>
-      </c>
-      <c r="H5">
-        <v>339175.90625</v>
       </c>
       <c r="I5">
         <v>324929.84375</v>
@@ -4375,10 +4375,10 @@
         <v>352469.25</v>
       </c>
       <c r="G6">
+        <v>335518.15625</v>
+      </c>
+      <c r="H6">
         <v>361002.0625</v>
-      </c>
-      <c r="H6">
-        <v>335493.59375</v>
       </c>
       <c r="I6">
         <v>358366.5</v>
@@ -4416,10 +4416,10 @@
         <v>341778.25</v>
       </c>
       <c r="G7">
+        <v>316520.40625</v>
+      </c>
+      <c r="H7">
         <v>363116.875</v>
-      </c>
-      <c r="H7">
-        <v>312995.84375</v>
       </c>
       <c r="I7">
         <v>303364.5</v>
@@ -4457,10 +4457,10 @@
         <v>352591.125</v>
       </c>
       <c r="G8">
+        <v>330987.25</v>
+      </c>
+      <c r="H8">
         <v>375554</v>
-      </c>
-      <c r="H8">
-        <v>325427.71875</v>
       </c>
       <c r="I8">
         <v>374865.71875</v>
@@ -4498,10 +4498,10 @@
         <v>365753.90625</v>
       </c>
       <c r="G9">
+        <v>346870.21875</v>
+      </c>
+      <c r="H9">
         <v>350427.90625</v>
-      </c>
-      <c r="H9">
-        <v>343517.90625</v>
       </c>
       <c r="I9">
         <v>431380.3125</v>
@@ -4539,10 +4539,10 @@
         <v>327316.53125</v>
       </c>
       <c r="G10">
+        <v>347436.0625</v>
+      </c>
+      <c r="H10">
         <v>363484.9375</v>
-      </c>
-      <c r="H10">
-        <v>346259.40625</v>
       </c>
       <c r="I10">
         <v>395946.1875</v>
@@ -4580,10 +4580,10 @@
         <v>354409.3125</v>
       </c>
       <c r="G11">
+        <v>345828.375</v>
+      </c>
+      <c r="H11">
         <v>346825.6875</v>
-      </c>
-      <c r="H11">
-        <v>343637.46875</v>
       </c>
       <c r="I11">
         <v>325221.125</v>
@@ -4621,10 +4621,10 @@
         <v>350701.125</v>
       </c>
       <c r="G12">
+        <v>373766.78125</v>
+      </c>
+      <c r="H12">
         <v>299919.46875</v>
-      </c>
-      <c r="H12">
-        <v>372793.28125</v>
       </c>
       <c r="I12">
         <v>305378.4375</v>
@@ -4662,10 +4662,10 @@
         <v>348569.84375</v>
       </c>
       <c r="G13">
+        <v>375358.59375</v>
+      </c>
+      <c r="H13">
         <v>190461.6875</v>
-      </c>
-      <c r="H13">
-        <v>374076</v>
       </c>
       <c r="I13">
         <v>342308.78125</v>
@@ -4703,10 +4703,10 @@
         <v>376723.84375</v>
       </c>
       <c r="G14">
+        <v>374477</v>
+      </c>
+      <c r="H14">
         <v>166308.8125</v>
-      </c>
-      <c r="H14">
-        <v>372175.5625</v>
       </c>
       <c r="I14">
         <v>388204.78125</v>
@@ -4744,10 +4744,10 @@
         <v>367657.875</v>
       </c>
       <c r="G15">
+        <v>397845.34375</v>
+      </c>
+      <c r="H15">
         <v>210268.734375</v>
-      </c>
-      <c r="H15">
-        <v>399006.53125</v>
       </c>
       <c r="I15">
         <v>390058.125</v>
@@ -4785,10 +4785,10 @@
         <v>409046.78125</v>
       </c>
       <c r="G16">
+        <v>384985.71875</v>
+      </c>
+      <c r="H16">
         <v>230468.5625</v>
-      </c>
-      <c r="H16">
-        <v>384838.78125</v>
       </c>
       <c r="I16">
         <v>352431.375</v>
@@ -4826,10 +4826,10 @@
         <v>413254.625</v>
       </c>
       <c r="G17">
+        <v>405409.15625</v>
+      </c>
+      <c r="H17">
         <v>269850.625</v>
-      </c>
-      <c r="H17">
-        <v>405660.28125</v>
       </c>
       <c r="I17">
         <v>328904.53125</v>
@@ -4867,10 +4867,10 @@
         <v>411577.21875</v>
       </c>
       <c r="G18">
+        <v>414470</v>
+      </c>
+      <c r="H18">
         <v>279600</v>
-      </c>
-      <c r="H18">
-        <v>415992.09375</v>
       </c>
       <c r="I18">
         <v>366121.1875</v>
@@ -4908,10 +4908,10 @@
         <v>428652.59375</v>
       </c>
       <c r="G19">
+        <v>404317.65625</v>
+      </c>
+      <c r="H19">
         <v>212631.78125</v>
-      </c>
-      <c r="H19">
-        <v>404465.21875</v>
       </c>
       <c r="I19">
         <v>291916.875</v>
@@ -4949,10 +4949,10 @@
         <v>348494.25</v>
       </c>
       <c r="G20">
+        <v>401514.75</v>
+      </c>
+      <c r="H20">
         <v>223164.8125</v>
-      </c>
-      <c r="H20">
-        <v>400646.84375</v>
       </c>
       <c r="I20">
         <v>426963.25</v>
@@ -4990,10 +4990,10 @@
         <v>360534.8125</v>
       </c>
       <c r="G21">
+        <v>391015.21875</v>
+      </c>
+      <c r="H21">
         <v>252432.171875</v>
-      </c>
-      <c r="H21">
-        <v>388418.78125</v>
       </c>
       <c r="I21">
         <v>490397.03125</v>
@@ -5031,10 +5031,10 @@
         <v>408776.375</v>
       </c>
       <c r="G22">
+        <v>394236.3125</v>
+      </c>
+      <c r="H22">
         <v>201589.359375</v>
-      </c>
-      <c r="H22">
-        <v>392403.6875</v>
       </c>
       <c r="I22">
         <v>338004.375</v>
@@ -5072,10 +5072,10 @@
         <v>427942.59375</v>
       </c>
       <c r="G23">
+        <v>422320.21875</v>
+      </c>
+      <c r="H23">
         <v>183490.5</v>
-      </c>
-      <c r="H23">
-        <v>420706.3125</v>
       </c>
       <c r="I23">
         <v>434232.03125</v>
@@ -5113,10 +5113,10 @@
         <v>452770.71875</v>
       </c>
       <c r="G24">
+        <v>422374.375</v>
+      </c>
+      <c r="H24">
         <v>222234.234375</v>
-      </c>
-      <c r="H24">
-        <v>424215.375</v>
       </c>
       <c r="I24">
         <v>324330.3125</v>
@@ -5154,10 +5154,10 @@
         <v>466520.34375</v>
       </c>
       <c r="G25">
+        <v>429155.9375</v>
+      </c>
+      <c r="H25">
         <v>224962.34375</v>
-      </c>
-      <c r="H25">
-        <v>430431.59375</v>
       </c>
       <c r="I25">
         <v>413924.71875</v>
@@ -5195,10 +5195,10 @@
         <v>498698.40625</v>
       </c>
       <c r="G26">
+        <v>436583.1875</v>
+      </c>
+      <c r="H26">
         <v>249928.03125</v>
-      </c>
-      <c r="H26">
-        <v>437400</v>
       </c>
       <c r="I26">
         <v>382670.96875</v>
@@ -5236,10 +5236,10 @@
         <v>482079.8125</v>
       </c>
       <c r="G27">
+        <v>445104.6875</v>
+      </c>
+      <c r="H27">
         <v>244215.34375</v>
-      </c>
-      <c r="H27">
-        <v>449261.875</v>
       </c>
       <c r="I27">
         <v>421451.4375</v>
@@ -5277,10 +5277,10 @@
         <v>469034.9375</v>
       </c>
       <c r="G28">
+        <v>439826.40625</v>
+      </c>
+      <c r="H28">
         <v>243022.640625</v>
-      </c>
-      <c r="H28">
-        <v>440439.3125</v>
       </c>
       <c r="I28">
         <v>431685.65625</v>
@@ -5318,10 +5318,10 @@
         <v>485471.78125</v>
       </c>
       <c r="G29">
+        <v>433112.21875</v>
+      </c>
+      <c r="H29">
         <v>230148.75</v>
-      </c>
-      <c r="H29">
-        <v>435654.5</v>
       </c>
       <c r="I29">
         <v>348009.84375</v>
@@ -5359,10 +5359,10 @@
         <v>510600.3125</v>
       </c>
       <c r="G30">
+        <v>441550.0625</v>
+      </c>
+      <c r="H30">
         <v>229519.765625</v>
-      </c>
-      <c r="H30">
-        <v>442460.5</v>
       </c>
       <c r="I30">
         <v>463131.46875</v>
@@ -5400,10 +5400,10 @@
         <v>535478.375</v>
       </c>
       <c r="G31">
+        <v>440143.21875</v>
+      </c>
+      <c r="H31">
         <v>255266.984375</v>
-      </c>
-      <c r="H31">
-        <v>442370.0625</v>
       </c>
       <c r="I31">
         <v>435068.5625</v>
@@ -5441,10 +5441,10 @@
         <v>516562.25</v>
       </c>
       <c r="G32">
+        <v>439248.84375</v>
+      </c>
+      <c r="H32">
         <v>263665.6875</v>
-      </c>
-      <c r="H32">
-        <v>442221.03125</v>
       </c>
       <c r="I32">
         <v>416660.125</v>
@@ -5482,10 +5482,10 @@
         <v>526601.25</v>
       </c>
       <c r="G33">
+        <v>435949.9375</v>
+      </c>
+      <c r="H33">
         <v>285288.375</v>
-      </c>
-      <c r="H33">
-        <v>437470.75</v>
       </c>
       <c r="I33">
         <v>382260.28125</v>
@@ -5523,10 +5523,10 @@
         <v>508471.53125</v>
       </c>
       <c r="G34">
+        <v>435059.6875</v>
+      </c>
+      <c r="H34">
         <v>302373.53125</v>
-      </c>
-      <c r="H34">
-        <v>437187.125</v>
       </c>
       <c r="I34">
         <v>355848.53125</v>
